--- a/biology/Zoologie/Hyla_felixarabica/Hyla_felixarabica.xlsx
+++ b/biology/Zoologie/Hyla_felixarabica/Hyla_felixarabica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyla felixarabica est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyla felixarabica est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Syrie, en Jordanie, en Israël, en Arabie saoudite et au Yémen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Syrie, en Jordanie, en Israël, en Arabie saoudite et au Yémen.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a longtemps été confondue avec Hyla savignyi[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a longtemps été confondue avec Hyla savignyi.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Václav Gvozdík, Jirí Moravec, Cornelya Klutsch et Petr Kotlík, « Phylogeography of the Middle Eastern tree frogs (Hyla, Hylidae, Amphibia) as inferred from nuclear and mitochondrial DNA variation, with a description of a new species », Molecular Phylogenetics and Evolution, Academic Press et Elsevier, vol. 55, no 3,‎ 20 mars 2010, p. 1146-1166 (ISSN 1055-7903 et 1095-9513, PMID 20307673, DOI 10.1016/J.YMPEV.2010.03.015)</t>
         </is>
